--- a/Result/3.xlsx
+++ b/Result/3.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c49e4f0b6c3fc49/WorkSpace/SAT_learn/Result/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_8FA65EDD97D9AE7F0D651B57E5E951A560B4BFB5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E323DDA-3F0C-45E2-A4D8-A61227904118}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>name</t>
   </si>
@@ -134,17 +128,29 @@
   </si>
   <si>
     <t>ismt_c_p_e_time</t>
+  </si>
+  <si>
+    <t>z3_pb_solved</t>
+  </si>
+  <si>
+    <t>z3_pb_time</t>
+  </si>
+  <si>
+    <t>z3_pn_solved</t>
+  </si>
+  <si>
+    <t>z3_pn_time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -152,15 +158,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -206,23 +205,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -264,7 +255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,27 +287,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,24 +321,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,19 +496,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="52.375" customWidth="1"/>
-    <col min="3" max="3" width="39.625" customWidth="1"/>
-    <col min="4" max="4" width="55.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -581,7 +531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -595,7 +545,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -609,7 +559,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -623,7 +573,7 @@
         <v>415013</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -637,7 +587,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -651,7 +601,7 @@
         <v>411699</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -662,7 +612,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -673,7 +623,7 @@
         <v>41197</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -684,7 +634,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -695,7 +645,7 @@
         <v>1829549</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -709,7 +659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -723,7 +673,7 @@
         <v>1056350</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -734,7 +684,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -745,7 +695,7 @@
         <v>1359925</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -756,7 +706,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -767,7 +717,7 @@
         <v>1593591</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -778,7 +728,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -789,7 +739,7 @@
         <v>1188052</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -803,7 +753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -817,7 +767,7 @@
         <v>716454</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -831,7 +781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -845,7 +795,7 @@
         <v>15741</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -859,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -873,7 +823,7 @@
         <v>4797</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -887,7 +837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -901,7 +851,7 @@
         <v>1836209</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -915,7 +865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -929,7 +879,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -943,7 +893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -957,7 +907,7 @@
         <v>2569</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -971,7 +921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -985,7 +935,7 @@
         <v>7472</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -996,7 +946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1007,9 +957,63 @@
         <v>1945</v>
       </c>
     </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36">
+        <v>179</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37">
+        <v>2028084</v>
+      </c>
+      <c r="D37">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38">
+        <v>34</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39">
+        <v>9838</v>
+      </c>
+      <c r="D39">
+        <v>9222</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Result/3.xlsx
+++ b/Result/3.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c49e4f0b6c3fc49/WorkSpace/SAT_learn/Result/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_B542DEC997D9AECF8A160B130BC6051E46F4C157" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C75231D9-F54F-42DE-8B86-99C46B989A75}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -145,12 +151,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -158,8 +164,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -205,15 +218,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -255,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,9 +308,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,6 +360,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,14 +553,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="3" width="56.75" customWidth="1"/>
+    <col min="4" max="4" width="82.875" customWidth="1"/>
+    <col min="5" max="5" width="91.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -530,8 +593,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -544,8 +610,11 @@
       <c r="D3">
         <v>509</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -558,8 +627,11 @@
       <c r="D4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -572,8 +644,11 @@
       <c r="D5">
         <v>415013</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -586,8 +661,11 @@
       <c r="D6">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -600,8 +678,11 @@
       <c r="D7">
         <v>411699</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -611,8 +692,11 @@
       <c r="C8">
         <v>98</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -622,8 +706,11 @@
       <c r="C9">
         <v>41197</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9">
+        <v>10478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -634,7 +721,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -645,7 +732,7 @@
         <v>1829549</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -658,8 +745,11 @@
       <c r="D12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -672,8 +762,11 @@
       <c r="D13">
         <v>1056350</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13">
+        <v>52134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -684,7 +777,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -695,7 +788,7 @@
         <v>1359925</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -705,8 +798,11 @@
       <c r="C16">
         <v>647</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -716,8 +812,11 @@
       <c r="C17">
         <v>1593591</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -728,7 +827,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -739,7 +838,7 @@
         <v>1188052</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -752,8 +851,11 @@
       <c r="D20">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -766,8 +868,11 @@
       <c r="D21">
         <v>716454</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>15932</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -780,8 +885,11 @@
       <c r="D22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -794,8 +902,11 @@
       <c r="D23">
         <v>15741</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -808,8 +919,11 @@
       <c r="D24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -822,8 +936,11 @@
       <c r="D25">
         <v>4797</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -836,8 +953,11 @@
       <c r="D26">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -850,8 +970,11 @@
       <c r="D27">
         <v>1836209</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -864,8 +987,11 @@
       <c r="D28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -878,8 +1004,11 @@
       <c r="D29">
         <v>1358</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -892,8 +1021,11 @@
       <c r="D30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -906,8 +1038,11 @@
       <c r="D31">
         <v>2569</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -920,8 +1055,11 @@
       <c r="D32">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -934,8 +1072,11 @@
       <c r="D33">
         <v>7472</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -946,7 +1087,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -957,7 +1098,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -970,8 +1111,11 @@
       <c r="D36">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -984,8 +1128,11 @@
       <c r="D37">
         <v>3091</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -998,8 +1145,11 @@
       <c r="D38">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1012,8 +1162,13 @@
       <c r="D39">
         <v>9222</v>
       </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>